--- a/app/static/excel/Festival.xlsx
+++ b/app/static/excel/Festival.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDesktop\Projects\KKL-Attendance-System\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32158C6A-EAFE-4268-970B-C382C60CA6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490BEDEB-AA38-4882-8F39-9F2B6CA8DD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{417BAAC0-15AA-49FC-9357-F5E80BEE78C4}"/>
   </bookViews>
@@ -84,86 +84,86 @@
     <t>Vtjaya Dasami</t>
   </si>
   <si>
-    <t>29.03.2024</t>
-  </si>
-  <si>
-    <t>01.01.2024</t>
-  </si>
-  <si>
-    <t>15.01.2024</t>
-  </si>
-  <si>
-    <t>16.01.2024</t>
-  </si>
-  <si>
-    <t>25.01.2024</t>
-  </si>
-  <si>
-    <t>26.01.2024</t>
-  </si>
-  <si>
-    <t>17.01.2024</t>
-  </si>
-  <si>
-    <t>11.04.2024</t>
-  </si>
-  <si>
-    <t>21.04.2024</t>
-  </si>
-  <si>
-    <t>01.05.2024</t>
-  </si>
-  <si>
-    <t>17.06.2024</t>
-  </si>
-  <si>
-    <t>17.07.2024</t>
-  </si>
-  <si>
-    <t>15.08.2024</t>
-  </si>
-  <si>
-    <t>26.08.2024</t>
-  </si>
-  <si>
-    <t>07.09.2024</t>
-  </si>
-  <si>
-    <t>16.09.2024</t>
-  </si>
-  <si>
-    <t>02.10.2024</t>
-  </si>
-  <si>
-    <t>11.10.2024</t>
-  </si>
-  <si>
-    <t>12.10.2024</t>
-  </si>
-  <si>
     <t>Deepavali</t>
   </si>
   <si>
     <t>Christmas</t>
   </si>
   <si>
-    <t>31.10.2024</t>
-  </si>
-  <si>
-    <t>25.12.2024</t>
-  </si>
-  <si>
     <t>Public Holidays</t>
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
+  </si>
+  <si>
+    <t>2024-01-17</t>
+  </si>
+  <si>
+    <t>2024-01-25</t>
+  </si>
+  <si>
+    <t>2024-01-26</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
+    <t>2024-04-21</t>
+  </si>
+  <si>
+    <t>2024-05-01</t>
+  </si>
+  <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
+    <t>2024-07-17</t>
+  </si>
+  <si>
+    <t>2024-08-15</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>2024-09-16</t>
+  </si>
+  <si>
+    <t>2024-10-02</t>
+  </si>
+  <si>
+    <t>2024-10-11</t>
+  </si>
+  <si>
+    <t>2024-10-12</t>
+  </si>
+  <si>
+    <t>2024-10-31</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +178,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFECECEC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,11 +219,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,195 +544,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0186B6FB-F546-4DC7-A6B1-E6B1CB7DA652}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>